--- a/Assets/Resources/GuideResources/GuideDB_day4.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,18 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +242,19 @@
 단, 피해자가 최상급 시민일 경우 진행하지 않는다.
 전 등급: 3급까지 사면 가능
 개발자(중급 이상), 교사(상급 이상): 1급까지 사면 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;
+테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,11 +590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -612,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -626,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -640,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -654,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -668,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -682,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -696,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -710,7 +716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -724,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -738,7 +744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -752,7 +758,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -830,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -838,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -863,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -874,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -888,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,13 +908,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -913,24 +922,24 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -938,10 +947,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -949,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -963,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,13 +983,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -988,7 +997,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -999,13 +1008,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1013,7 +1022,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1038,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1052,38 +1061,38 @@
         <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>47</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1091,24 +1100,24 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="379.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GuideResources/GuideDB_day4.xlsx
+++ b/Assets/Resources/GuideResources/GuideDB_day4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Hanging\Assets\Resources\GuideResources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\행잉\Data\가이드창\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,6 +154,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;최상급 시민&gt;
+마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
+&lt;상급 시민&gt;
+가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
+&lt;중급 시민&gt;테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
+&lt;하급 시민&gt;
+스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
+&lt;최하급 시민&gt;
+브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1급: 살인 / 2급: 상해, 폭행, 강도 / 3급: 강간, 강제 추행 / 4급: 협박, 공갈, 사기 / 5급: 모욕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,19 +254,6 @@
 단, 피해자가 최상급 시민일 경우 진행하지 않는다.
 전 등급: 3급까지 사면 가능
 개발자(중급 이상), 교사(상급 이상): 1급까지 사면 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;최상급 시민&gt;
-마르티네즈, 헤르난데즈, 로페즈, 산체스, 리베라, 러셀, 리처즈, 멘데즈, 헤일
-&lt;상급 시민&gt;
-가르시아, 루이스, 넬슨, 에드워즈, 필립스, 반즈, 제이콥스, 크로스, 프로이드
-&lt;중급 시민&gt;
-테일러, 화이트, 잭슨, 앤더슨, 로드리게즈, 알렌, 콜린스, 로저스, 레이놀즈, 보이드, 해리슨, 라모스, 가렛, 메디나, 다니엘, 델가도, 오르테가, 무디
-&lt;하급 시민&gt;
-스미스, 데이비스, 마틴, 그린, 페레즈, 하워드, 알렉산더, 마이어스, 디아즈, 스티븐스, 라일리, 루이즈, 라이언, 메이어, 산티아, 슈나이더, 모란, 하몬
-&lt;최하급 시민&gt;
-브라운, 그레이, 젠킨스, 왓슨, 오티즈, 로즈, 페르난데즈, 오브라이언, 프랜시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,16 +589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -618,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -632,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -646,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -660,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -688,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -702,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -716,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -730,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -744,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -758,10 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>4</v>
-      </c>
+    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -839,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -847,7 +838,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,7 +863,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -883,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -897,7 +888,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -908,13 +899,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -922,10 +913,10 @@
         <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -933,13 +924,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -947,10 +938,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -958,13 +949,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="198" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -972,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,13 +974,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -997,7 +988,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,13 +999,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1022,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,7 +1030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1047,13 +1038,13 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1061,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1072,13 +1063,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1086,13 +1077,13 @@
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1100,10 +1091,10 @@
         <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1111,13 +1102,13 @@
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="379.5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1125,7 +1116,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
